--- a/resources/input_data.xlsx
+++ b/resources/input_data.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7000032828\Workspace\qe_automation_flipkart\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7000032828\Workspace\framework_git\qe_automation_filpkart\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AEBFBA-60BB-455A-AA1C-79DF2366E43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0544015A-EE38-44C8-9767-9D4F5EAD7F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{2463F9C5-1750-0048-8FEB-74FF33B32275}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2463F9C5-1750-0048-8FEB-74FF33B32275}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="parameterize_data" sheetId="2" r:id="rId2"/>
+    <sheet name="test_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Input1</t>
   </si>
@@ -52,9 +51,6 @@
     <t>tshirt</t>
   </si>
   <si>
-    <t>jeans</t>
-  </si>
-  <si>
     <t>test_search_function</t>
   </si>
   <si>
@@ -64,46 +60,67 @@
     <t>test_search_product_verify_proudct_in_searchresultpage</t>
   </si>
   <si>
-    <t>NeroEdge USB Type C Cable 1 m Xiaomi mi Turbo Charge Cable 6A 33w For MI 12 10T Pro 5G</t>
-  </si>
-  <si>
-    <t>Vooy Power Sharing Cable 0.2 m 50watt Super Vooc Charge, Data Sync Type-C Cable Compatible</t>
-  </si>
-  <si>
     <t>test_verify_add_to_cart_function</t>
   </si>
   <si>
     <t>test_verify_name_in_pdp_page</t>
   </si>
   <si>
-    <t>SB 18W Wall Charger with Micro-USB Cable Charging Adapter Travel Fast PWRBLU.404 18 W 3.4 A Mobile Charger with Detachable Cable</t>
-  </si>
-  <si>
-    <t>charger</t>
-  </si>
-  <si>
     <t>Welcome@123</t>
   </si>
   <si>
     <t>test_verify_wishlist_function</t>
   </si>
   <si>
-    <t>USTRAA Cologne Spray Base Camp Perfume  -  100 ml</t>
-  </si>
-  <si>
-    <t>USTRAA Cologne Spray Base Camp Perfume - 100 ml  (For Men)</t>
-  </si>
-  <si>
-    <t>perfume</t>
-  </si>
-  <si>
     <t>Input3</t>
   </si>
   <si>
     <t>test_login</t>
   </si>
   <si>
-    <t>Input4</t>
+    <t>test_verify_category_item</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>TVs &amp; Appliances</t>
+  </si>
+  <si>
+    <t>Inverter AC</t>
+  </si>
+  <si>
+    <t>test_verify_price_low_to_high_sortby_function</t>
+  </si>
+  <si>
+    <t>Price -- Low to High</t>
+  </si>
+  <si>
+    <t>Air Conditioners</t>
+  </si>
+  <si>
+    <t>Sports, Healthcare &amp; more</t>
+  </si>
+  <si>
+    <t>Puzzles &amp; Cubes</t>
+  </si>
+  <si>
+    <t>test_verify_master_product</t>
+  </si>
+  <si>
+    <t>apple power adapter</t>
+  </si>
+  <si>
+    <t>Apple MD836HN/A 12W USB Power Adapter</t>
+  </si>
+  <si>
+    <t>Mi USB Type C Cable 2 A 0.3 m 22243</t>
   </si>
 </sst>
 </file>
@@ -147,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -183,11 +200,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -200,6 +246,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -516,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E163B-7AA0-DE48-B629-E9896DDF2F3D}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -531,7 +586,7 @@
     <col min="5" max="5" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -542,10 +597,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -554,126 +609,152 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4">
         <v>7381413822</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4">
         <v>7381413822</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7DC0C4-84D7-42D6-96CD-B13BD9B55FE1}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
 </file>